--- a/Bibsam_tidskriftslistor/scifree_data_portland.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_portland.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F7713C950CCDCA94F1E6E5DE6A255A7E222C7BB3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F30DB5-1F31-451F-9D84-76CEBD1D4333}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Open</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Clinical Science</t>
   </si>
   <si>
-    <t>Neuronal Signaling</t>
-  </si>
-  <si>
     <t>Bioscience Reports</t>
   </si>
   <si>
@@ -100,12 +98,6 @@
   </si>
   <si>
     <t>0144-8463</t>
-  </si>
-  <si>
-    <t>https://portlandpress.com/neuronalsignal</t>
-  </si>
-  <si>
-    <t>2059-6553</t>
   </si>
   <si>
     <t>https://portlandpress.com/biochemsoctrans</t>
@@ -138,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,19 +237,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G8" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G8"/>
-  <sortState ref="A2:G8">
-    <sortCondition ref="D1:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+    <sortCondition ref="D1:D7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -525,23 +517,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="68.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -564,21 +558,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -587,21 +581,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -610,21 +604,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -633,21 +627,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -656,21 +650,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -679,46 +673,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -726,11 +700,11 @@
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
